--- a/data/raw/election/voters-age-sex-education/2023/Bingöl.xlsx
+++ b/data/raw/election/voters-age-sex-education/2023/Bingöl.xlsx
@@ -5,22 +5,21 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive - baskent.edu.tr\MAKALE\2024\5-anomaly-detection-in-elections\data\2023-iibs3-age_sex_education\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345"/>
   </bookViews>
   <sheets>
-    <sheet name="Kurtarılan_Sayfa1" sheetId="2" r:id="rId1"/>
+    <sheet name="18-10-2024-16:30:07-19320806173" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="37">
   <si>
     <t>Bingöl</t>
   </si>
@@ -125,6 +124,12 @@
   </si>
   <si>
     <t>Yedisu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not. 1.Seçmenlerin yaşı, 14 Mayıs 2023 tarihine göre gün, ay ve yıl dikkate alınarak hesaplanmıştır. </t>
+  </si>
+  <si>
+    <t>2.Seçmenlerin eğitim durumu, Ulusal Eğitim İstatistikleri Veri Tabanı'ndan alınmıştır.</t>
   </si>
 </sst>
 </file>
@@ -658,7 +663,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
@@ -678,10 +683,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="%20 - Vurgu1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1006,10 +1020,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N212"/>
+  <dimension ref="A1:N214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A179" workbookViewId="0">
-      <selection activeCell="A213" sqref="A213:A214"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1025,24 +1039,24 @@
     <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.140625" customWidth="1"/>
     <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7" customWidth="1"/>
+    <col min="13" max="13" width="6.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -2076,8 +2090,8 @@
       <c r="D30" s="5">
         <v>457</v>
       </c>
-      <c r="E30" s="5">
-        <v>1.2270000000000001</v>
+      <c r="E30" s="7">
+        <v>1227</v>
       </c>
       <c r="F30" s="5">
         <v>529</v>
@@ -2085,8 +2099,8 @@
       <c r="G30" s="5">
         <v>792</v>
       </c>
-      <c r="H30" s="5">
-        <v>1.583</v>
+      <c r="H30" s="7">
+        <v>1583</v>
       </c>
       <c r="I30" s="5">
         <v>494</v>
@@ -2100,8 +2114,8 @@
       <c r="L30" s="5">
         <v>52</v>
       </c>
-      <c r="M30" s="5">
-        <v>6.0359999999999996</v>
+      <c r="M30" s="7">
+        <v>6036</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -2162,14 +2176,14 @@
       <c r="F32" s="4">
         <v>1</v>
       </c>
-      <c r="G32" s="4">
-        <v>2.1389999999999998</v>
-      </c>
-      <c r="H32" s="4">
-        <v>5.6260000000000003</v>
-      </c>
-      <c r="I32" s="4">
-        <v>1.052</v>
+      <c r="G32" s="9">
+        <v>2139</v>
+      </c>
+      <c r="H32" s="9">
+        <v>5626</v>
+      </c>
+      <c r="I32" s="9">
+        <v>1052</v>
       </c>
       <c r="J32" s="4">
         <v>10</v>
@@ -2180,8 +2194,8 @@
       <c r="L32" s="4">
         <v>57</v>
       </c>
-      <c r="M32" s="5">
-        <v>8.9459999999999997</v>
+      <c r="M32" s="7">
+        <v>8946</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -2201,14 +2215,14 @@
       <c r="F33" s="4">
         <v>7</v>
       </c>
-      <c r="G33" s="4">
-        <v>1.8819999999999999</v>
-      </c>
-      <c r="H33" s="4">
-        <v>5.7409999999999997</v>
-      </c>
-      <c r="I33" s="4">
-        <v>1.538</v>
+      <c r="G33" s="9">
+        <v>1882</v>
+      </c>
+      <c r="H33" s="9">
+        <v>5741</v>
+      </c>
+      <c r="I33" s="9">
+        <v>1538</v>
       </c>
       <c r="J33" s="4">
         <v>9</v>
@@ -2219,8 +2233,8 @@
       <c r="L33" s="4">
         <v>13</v>
       </c>
-      <c r="M33" s="5">
-        <v>9.3000000000000007</v>
+      <c r="M33" s="7">
+        <v>9300</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -2242,14 +2256,14 @@
       <c r="F34" s="4">
         <v>63</v>
       </c>
-      <c r="G34" s="4">
-        <v>1.3460000000000001</v>
-      </c>
-      <c r="H34" s="4">
-        <v>2.4670000000000001</v>
-      </c>
-      <c r="I34" s="4">
-        <v>2.4039999999999999</v>
+      <c r="G34" s="9">
+        <v>1346</v>
+      </c>
+      <c r="H34" s="9">
+        <v>2467</v>
+      </c>
+      <c r="I34" s="9">
+        <v>2404</v>
       </c>
       <c r="J34" s="4">
         <v>237</v>
@@ -2260,8 +2274,8 @@
       <c r="L34" s="4">
         <v>25</v>
       </c>
-      <c r="M34" s="5">
-        <v>6.6239999999999997</v>
+      <c r="M34" s="7">
+        <v>6624</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -2281,14 +2295,14 @@
       <c r="F35" s="4">
         <v>258</v>
       </c>
-      <c r="G35" s="4">
-        <v>1.373</v>
-      </c>
-      <c r="H35" s="4">
-        <v>2.117</v>
-      </c>
-      <c r="I35" s="4">
-        <v>3.0139999999999998</v>
+      <c r="G35" s="9">
+        <v>1373</v>
+      </c>
+      <c r="H35" s="9">
+        <v>2117</v>
+      </c>
+      <c r="I35" s="9">
+        <v>3014</v>
       </c>
       <c r="J35" s="4">
         <v>235</v>
@@ -2299,8 +2313,8 @@
       <c r="L35" s="4">
         <v>21</v>
       </c>
-      <c r="M35" s="5">
-        <v>7.47</v>
+      <c r="M35" s="7">
+        <v>7470</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -2325,11 +2339,11 @@
       <c r="G36" s="4">
         <v>747</v>
       </c>
-      <c r="H36" s="4">
-        <v>2.2269999999999999</v>
-      </c>
-      <c r="I36" s="4">
-        <v>2.91</v>
+      <c r="H36" s="9">
+        <v>2227</v>
+      </c>
+      <c r="I36" s="9">
+        <v>2910</v>
       </c>
       <c r="J36" s="4">
         <v>513</v>
@@ -2340,8 +2354,8 @@
       <c r="L36" s="4">
         <v>27</v>
       </c>
-      <c r="M36" s="5">
-        <v>7.2960000000000003</v>
+      <c r="M36" s="7">
+        <v>7296</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -2358,17 +2372,17 @@
       <c r="E37" s="4">
         <v>236</v>
       </c>
-      <c r="F37" s="4">
-        <v>1.141</v>
+      <c r="F37" s="9">
+        <v>1141</v>
       </c>
       <c r="G37" s="4">
         <v>776</v>
       </c>
-      <c r="H37" s="4">
-        <v>2.137</v>
-      </c>
-      <c r="I37" s="4">
-        <v>2.552</v>
+      <c r="H37" s="9">
+        <v>2137</v>
+      </c>
+      <c r="I37" s="9">
+        <v>2552</v>
       </c>
       <c r="J37" s="4">
         <v>360</v>
@@ -2379,8 +2393,8 @@
       <c r="L37" s="4">
         <v>14</v>
       </c>
-      <c r="M37" s="5">
-        <v>7.6689999999999996</v>
+      <c r="M37" s="7">
+        <v>7669</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -2405,11 +2419,11 @@
       <c r="G38" s="4">
         <v>541</v>
       </c>
-      <c r="H38" s="4">
-        <v>2.15</v>
-      </c>
-      <c r="I38" s="4">
-        <v>2.0579999999999998</v>
+      <c r="H38" s="9">
+        <v>2150</v>
+      </c>
+      <c r="I38" s="9">
+        <v>2058</v>
       </c>
       <c r="J38" s="4">
         <v>467</v>
@@ -2420,8 +2434,8 @@
       <c r="L38" s="4">
         <v>43</v>
       </c>
-      <c r="M38" s="5">
-        <v>6.7380000000000004</v>
+      <c r="M38" s="7">
+        <v>6738</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -2444,11 +2458,11 @@
       <c r="G39" s="4">
         <v>811</v>
       </c>
-      <c r="H39" s="4">
-        <v>2.08</v>
-      </c>
-      <c r="I39" s="4">
-        <v>1.3140000000000001</v>
+      <c r="H39" s="9">
+        <v>2080</v>
+      </c>
+      <c r="I39" s="9">
+        <v>1314</v>
       </c>
       <c r="J39" s="4">
         <v>191</v>
@@ -2459,8 +2473,8 @@
       <c r="L39" s="4">
         <v>21</v>
       </c>
-      <c r="M39" s="5">
-        <v>6.5369999999999999</v>
+      <c r="M39" s="7">
+        <v>6537</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -2485,11 +2499,11 @@
       <c r="G40" s="4">
         <v>906</v>
       </c>
-      <c r="H40" s="4">
-        <v>2.1579999999999999</v>
-      </c>
-      <c r="I40" s="4">
-        <v>1.3779999999999999</v>
+      <c r="H40" s="9">
+        <v>2158</v>
+      </c>
+      <c r="I40" s="9">
+        <v>1378</v>
       </c>
       <c r="J40" s="4">
         <v>298</v>
@@ -2500,8 +2514,8 @@
       <c r="L40" s="4">
         <v>54</v>
       </c>
-      <c r="M40" s="5">
-        <v>6.4550000000000001</v>
+      <c r="M40" s="7">
+        <v>6455</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -2515,17 +2529,17 @@
       <c r="D41" s="4">
         <v>256</v>
       </c>
-      <c r="E41" s="4">
-        <v>1.3149999999999999</v>
+      <c r="E41" s="9">
+        <v>1315</v>
       </c>
       <c r="F41" s="4">
         <v>731</v>
       </c>
-      <c r="G41" s="4">
-        <v>1.2330000000000001</v>
-      </c>
-      <c r="H41" s="4">
-        <v>1.9550000000000001</v>
+      <c r="G41" s="9">
+        <v>1233</v>
+      </c>
+      <c r="H41" s="9">
+        <v>1955</v>
       </c>
       <c r="I41" s="4">
         <v>730</v>
@@ -2539,8 +2553,8 @@
       <c r="L41" s="4">
         <v>30</v>
       </c>
-      <c r="M41" s="5">
-        <v>6.5289999999999999</v>
+      <c r="M41" s="7">
+        <v>6529</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -2565,8 +2579,8 @@
       <c r="G42" s="4">
         <v>776</v>
       </c>
-      <c r="H42" s="4">
-        <v>1.603</v>
+      <c r="H42" s="9">
+        <v>1603</v>
       </c>
       <c r="I42" s="4">
         <v>892</v>
@@ -2580,8 +2594,8 @@
       <c r="L42" s="4">
         <v>54</v>
       </c>
-      <c r="M42" s="5">
-        <v>4.8869999999999996</v>
+      <c r="M42" s="7">
+        <v>4887</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -2595,8 +2609,8 @@
       <c r="D43" s="4">
         <v>207</v>
       </c>
-      <c r="E43" s="4">
-        <v>1.208</v>
+      <c r="E43" s="9">
+        <v>1208</v>
       </c>
       <c r="F43" s="4">
         <v>604</v>
@@ -2604,8 +2618,8 @@
       <c r="G43" s="4">
         <v>999</v>
       </c>
-      <c r="H43" s="4">
-        <v>1.514</v>
+      <c r="H43" s="9">
+        <v>1514</v>
       </c>
       <c r="I43" s="4">
         <v>332</v>
@@ -2619,8 +2633,8 @@
       <c r="L43" s="4">
         <v>26</v>
       </c>
-      <c r="M43" s="5">
-        <v>5.08</v>
+      <c r="M43" s="7">
+        <v>5080</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -2645,8 +2659,8 @@
       <c r="G44" s="4">
         <v>738</v>
       </c>
-      <c r="H44" s="4">
-        <v>1.159</v>
+      <c r="H44" s="9">
+        <v>1159</v>
       </c>
       <c r="I44" s="4">
         <v>647</v>
@@ -2660,8 +2674,8 @@
       <c r="L44" s="4">
         <v>44</v>
       </c>
-      <c r="M44" s="5">
-        <v>4.0750000000000002</v>
+      <c r="M44" s="7">
+        <v>4075</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -2675,8 +2689,8 @@
       <c r="D45" s="4">
         <v>286</v>
       </c>
-      <c r="E45" s="4">
-        <v>1.07</v>
+      <c r="E45" s="9">
+        <v>1070</v>
       </c>
       <c r="F45" s="4">
         <v>426</v>
@@ -2684,8 +2698,8 @@
       <c r="G45" s="4">
         <v>661</v>
       </c>
-      <c r="H45" s="4">
-        <v>1.1519999999999999</v>
+      <c r="H45" s="9">
+        <v>1152</v>
       </c>
       <c r="I45" s="4">
         <v>128</v>
@@ -2699,8 +2713,8 @@
       <c r="L45" s="4">
         <v>35</v>
       </c>
-      <c r="M45" s="5">
-        <v>3.9830000000000001</v>
+      <c r="M45" s="7">
+        <v>3983</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -2725,8 +2739,8 @@
       <c r="G46" s="4">
         <v>535</v>
       </c>
-      <c r="H46" s="4">
-        <v>1.069</v>
+      <c r="H46" s="9">
+        <v>1069</v>
       </c>
       <c r="I46" s="4">
         <v>472</v>
@@ -2740,8 +2754,8 @@
       <c r="L46" s="4">
         <v>43</v>
       </c>
-      <c r="M46" s="5">
-        <v>3.4849999999999999</v>
+      <c r="M46" s="7">
+        <v>3485</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -2779,8 +2793,8 @@
       <c r="L47" s="4">
         <v>24</v>
       </c>
-      <c r="M47" s="5">
-        <v>3.298</v>
+      <c r="M47" s="7">
+        <v>3298</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -2820,8 +2834,8 @@
       <c r="L48" s="4">
         <v>32</v>
       </c>
-      <c r="M48" s="5">
-        <v>2.4889999999999999</v>
+      <c r="M48" s="7">
+        <v>2489</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -2859,8 +2873,8 @@
       <c r="L49" s="4">
         <v>25</v>
       </c>
-      <c r="M49" s="5">
-        <v>2.504</v>
+      <c r="M49" s="7">
+        <v>2504</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
@@ -2900,8 +2914,8 @@
       <c r="L50" s="4">
         <v>22</v>
       </c>
-      <c r="M50" s="5">
-        <v>1.8640000000000001</v>
+      <c r="M50" s="7">
+        <v>1864</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
@@ -2939,8 +2953,8 @@
       <c r="L51" s="4">
         <v>19</v>
       </c>
-      <c r="M51" s="5">
-        <v>2.161</v>
+      <c r="M51" s="7">
+        <v>2161</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
@@ -2980,8 +2994,8 @@
       <c r="L52" s="4">
         <v>18</v>
       </c>
-      <c r="M52" s="5">
-        <v>1.296</v>
+      <c r="M52" s="7">
+        <v>1296</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
@@ -3019,8 +3033,8 @@
       <c r="L53" s="4">
         <v>18</v>
       </c>
-      <c r="M53" s="5">
-        <v>1.581</v>
+      <c r="M53" s="7">
+        <v>1581</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
@@ -3060,8 +3074,8 @@
       <c r="L54" s="4">
         <v>19</v>
       </c>
-      <c r="M54" s="5">
-        <v>1.669</v>
+      <c r="M54" s="7">
+        <v>1669</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
@@ -3069,8 +3083,8 @@
       <c r="B55" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C55" s="4">
-        <v>1.5840000000000001</v>
+      <c r="C55" s="9">
+        <v>1584</v>
       </c>
       <c r="D55" s="4">
         <v>300</v>
@@ -3099,8 +3113,8 @@
       <c r="L55" s="4">
         <v>22</v>
       </c>
-      <c r="M55" s="5">
-        <v>2.2210000000000001</v>
+      <c r="M55" s="7">
+        <v>2221</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
@@ -3108,29 +3122,29 @@
         <v>12</v>
       </c>
       <c r="B56" s="6"/>
-      <c r="C56" s="5">
-        <v>5.25</v>
-      </c>
-      <c r="D56" s="5">
-        <v>4.069</v>
-      </c>
-      <c r="E56" s="5">
-        <v>12.53</v>
-      </c>
-      <c r="F56" s="5">
-        <v>10.52</v>
-      </c>
-      <c r="G56" s="5">
-        <v>17.116</v>
-      </c>
-      <c r="H56" s="5">
-        <v>38.496000000000002</v>
-      </c>
-      <c r="I56" s="5">
-        <v>22.190999999999999</v>
-      </c>
-      <c r="J56" s="5">
-        <v>2.7629999999999999</v>
+      <c r="C56" s="7">
+        <v>5250</v>
+      </c>
+      <c r="D56" s="7">
+        <v>4069</v>
+      </c>
+      <c r="E56" s="7">
+        <v>12530</v>
+      </c>
+      <c r="F56" s="7">
+        <v>10520</v>
+      </c>
+      <c r="G56" s="7">
+        <v>17116</v>
+      </c>
+      <c r="H56" s="7">
+        <v>38496</v>
+      </c>
+      <c r="I56" s="7">
+        <v>22191</v>
+      </c>
+      <c r="J56" s="7">
+        <v>2763</v>
       </c>
       <c r="K56" s="5">
         <v>516</v>
@@ -3138,8 +3152,8 @@
       <c r="L56" s="5">
         <v>706</v>
       </c>
-      <c r="M56" s="5">
-        <v>114.157</v>
+      <c r="M56" s="7">
+        <v>114157</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -3203,8 +3217,8 @@
       <c r="G58" s="4">
         <v>499</v>
       </c>
-      <c r="H58" s="4">
-        <v>1.3220000000000001</v>
+      <c r="H58" s="9">
+        <v>1322</v>
       </c>
       <c r="I58" s="4">
         <v>276</v>
@@ -3218,8 +3232,8 @@
       <c r="L58" s="4">
         <v>13</v>
       </c>
-      <c r="M58" s="5">
-        <v>2.1480000000000001</v>
+      <c r="M58" s="7">
+        <v>2148</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
@@ -3242,8 +3256,8 @@
       <c r="G59" s="4">
         <v>416</v>
       </c>
-      <c r="H59" s="4">
-        <v>1.2310000000000001</v>
+      <c r="H59" s="9">
+        <v>1231</v>
       </c>
       <c r="I59" s="4">
         <v>306</v>
@@ -3257,8 +3271,8 @@
       <c r="L59" s="4">
         <v>3</v>
       </c>
-      <c r="M59" s="5">
-        <v>2.0720000000000001</v>
+      <c r="M59" s="7">
+        <v>2072</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
@@ -3298,8 +3312,8 @@
       <c r="L60" s="4">
         <v>6</v>
       </c>
-      <c r="M60" s="5">
-        <v>1.716</v>
+      <c r="M60" s="7">
+        <v>1716</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
@@ -3337,8 +3351,8 @@
       <c r="L61" s="4">
         <v>3</v>
       </c>
-      <c r="M61" s="5">
-        <v>1.2969999999999999</v>
+      <c r="M61" s="7">
+        <v>1297</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
@@ -3378,8 +3392,8 @@
       <c r="L62" s="4">
         <v>3</v>
       </c>
-      <c r="M62" s="5">
-        <v>1.53</v>
+      <c r="M62" s="7">
+        <v>1530</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
@@ -3417,8 +3431,8 @@
       <c r="L63" s="4">
         <v>2</v>
       </c>
-      <c r="M63" s="5">
-        <v>1.1599999999999999</v>
+      <c r="M63" s="7">
+        <v>1160</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
@@ -3458,8 +3472,8 @@
       <c r="L64" s="4">
         <v>2</v>
       </c>
-      <c r="M64" s="5">
-        <v>1.2190000000000001</v>
+      <c r="M64" s="7">
+        <v>1219</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
@@ -3497,8 +3511,8 @@
       <c r="L65" s="4">
         <v>2</v>
       </c>
-      <c r="M65" s="5">
-        <v>1.004</v>
+      <c r="M65" s="7">
+        <v>1004</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
@@ -3538,8 +3552,8 @@
       <c r="L66" s="4">
         <v>4</v>
       </c>
-      <c r="M66" s="5">
-        <v>1.1659999999999999</v>
+      <c r="M66" s="7">
+        <v>1166</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
@@ -3577,8 +3591,8 @@
       <c r="L67" s="4">
         <v>4</v>
       </c>
-      <c r="M67" s="5">
-        <v>1.113</v>
+      <c r="M67" s="7">
+        <v>1113</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
@@ -3618,8 +3632,8 @@
       <c r="L68" s="4">
         <v>3</v>
       </c>
-      <c r="M68" s="5">
-        <v>1.0189999999999999</v>
+      <c r="M68" s="7">
+        <v>1019</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
@@ -4146,26 +4160,26 @@
         <v>12</v>
       </c>
       <c r="B82" s="6"/>
-      <c r="C82" s="5">
-        <v>1.66</v>
-      </c>
-      <c r="D82" s="5">
-        <v>1.6040000000000001</v>
-      </c>
-      <c r="E82" s="5">
-        <v>2.8359999999999999</v>
-      </c>
-      <c r="F82" s="5">
-        <v>2.028</v>
-      </c>
-      <c r="G82" s="5">
-        <v>3.9460000000000002</v>
-      </c>
-      <c r="H82" s="5">
-        <v>8.7729999999999997</v>
-      </c>
-      <c r="I82" s="5">
-        <v>3.0019999999999998</v>
+      <c r="C82" s="7">
+        <v>1660</v>
+      </c>
+      <c r="D82" s="7">
+        <v>1604</v>
+      </c>
+      <c r="E82" s="7">
+        <v>2836</v>
+      </c>
+      <c r="F82" s="7">
+        <v>2028</v>
+      </c>
+      <c r="G82" s="7">
+        <v>3946</v>
+      </c>
+      <c r="H82" s="7">
+        <v>8773</v>
+      </c>
+      <c r="I82" s="7">
+        <v>3002</v>
       </c>
       <c r="J82" s="5">
         <v>199</v>
@@ -4176,8 +4190,8 @@
       <c r="L82" s="5">
         <v>96</v>
       </c>
-      <c r="M82" s="5">
-        <v>24.152000000000001</v>
+      <c r="M82" s="7">
+        <v>24152</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -4256,8 +4270,8 @@
       <c r="L84" s="4">
         <v>26</v>
       </c>
-      <c r="M84" s="5">
-        <v>1.8939999999999999</v>
+      <c r="M84" s="7">
+        <v>1894</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
@@ -4295,8 +4309,8 @@
       <c r="L85" s="4">
         <v>9</v>
       </c>
-      <c r="M85" s="5">
-        <v>1.8680000000000001</v>
+      <c r="M85" s="7">
+        <v>1868</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
@@ -4336,8 +4350,8 @@
       <c r="L86" s="4">
         <v>12</v>
       </c>
-      <c r="M86" s="5">
-        <v>1.115</v>
+      <c r="M86" s="7">
+        <v>1115</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
@@ -4375,8 +4389,8 @@
       <c r="L87" s="4">
         <v>13</v>
       </c>
-      <c r="M87" s="5">
-        <v>1.0129999999999999</v>
+      <c r="M87" s="7">
+        <v>1013</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
@@ -4416,8 +4430,8 @@
       <c r="L88" s="4">
         <v>4</v>
       </c>
-      <c r="M88" s="5">
-        <v>1.0289999999999999</v>
+      <c r="M88" s="7">
+        <v>1029</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
@@ -5184,26 +5198,26 @@
         <v>12</v>
       </c>
       <c r="B108" s="6"/>
-      <c r="C108" s="5">
-        <v>1.5669999999999999</v>
-      </c>
-      <c r="D108" s="5">
-        <v>1.5720000000000001</v>
-      </c>
-      <c r="E108" s="5">
-        <v>3.9380000000000002</v>
-      </c>
-      <c r="F108" s="5">
-        <v>2.032</v>
-      </c>
-      <c r="G108" s="5">
-        <v>3.48</v>
-      </c>
-      <c r="H108" s="5">
-        <v>3.7069999999999999</v>
-      </c>
-      <c r="I108" s="5">
-        <v>1.429</v>
+      <c r="C108" s="7">
+        <v>1567</v>
+      </c>
+      <c r="D108" s="7">
+        <v>1572</v>
+      </c>
+      <c r="E108" s="7">
+        <v>3938</v>
+      </c>
+      <c r="F108" s="7">
+        <v>2032</v>
+      </c>
+      <c r="G108" s="7">
+        <v>3480</v>
+      </c>
+      <c r="H108" s="7">
+        <v>3707</v>
+      </c>
+      <c r="I108" s="7">
+        <v>1429</v>
       </c>
       <c r="J108" s="5">
         <v>142</v>
@@ -5214,8 +5228,8 @@
       <c r="L108" s="5">
         <v>221</v>
       </c>
-      <c r="M108" s="5">
-        <v>18.091000000000001</v>
+      <c r="M108" s="7">
+        <v>18091</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -6237,8 +6251,8 @@
       <c r="G134" s="5">
         <v>388</v>
       </c>
-      <c r="H134" s="5">
-        <v>1.163</v>
+      <c r="H134" s="7">
+        <v>1163</v>
       </c>
       <c r="I134" s="5">
         <v>693</v>
@@ -6252,8 +6266,8 @@
       <c r="L134" s="5">
         <v>64</v>
       </c>
-      <c r="M134" s="5">
-        <v>3.7469999999999999</v>
+      <c r="M134" s="7">
+        <v>3747</v>
       </c>
     </row>
     <row r="135" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -6317,8 +6331,8 @@
       <c r="G136" s="4">
         <v>609</v>
       </c>
-      <c r="H136" s="4">
-        <v>1.353</v>
+      <c r="H136" s="9">
+        <v>1353</v>
       </c>
       <c r="I136" s="4">
         <v>195</v>
@@ -6332,8 +6346,8 @@
       <c r="L136" s="4">
         <v>22</v>
       </c>
-      <c r="M136" s="5">
-        <v>2.2170000000000001</v>
+      <c r="M136" s="7">
+        <v>2217</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
@@ -6356,8 +6370,8 @@
       <c r="G137" s="4">
         <v>530</v>
       </c>
-      <c r="H137" s="4">
-        <v>1.3680000000000001</v>
+      <c r="H137" s="9">
+        <v>1368</v>
       </c>
       <c r="I137" s="4">
         <v>307</v>
@@ -6371,8 +6385,8 @@
       <c r="L137" s="4">
         <v>4</v>
       </c>
-      <c r="M137" s="5">
-        <v>2.298</v>
+      <c r="M137" s="7">
+        <v>2298</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
@@ -6412,8 +6426,8 @@
       <c r="L138" s="4">
         <v>10</v>
       </c>
-      <c r="M138" s="5">
-        <v>1.522</v>
+      <c r="M138" s="7">
+        <v>1522</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
@@ -6451,8 +6465,8 @@
       <c r="L139" s="4">
         <v>4</v>
       </c>
-      <c r="M139" s="5">
-        <v>1.619</v>
+      <c r="M139" s="7">
+        <v>1619</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
@@ -6492,8 +6506,8 @@
       <c r="L140" s="4">
         <v>4</v>
       </c>
-      <c r="M140" s="5">
-        <v>1.395</v>
+      <c r="M140" s="7">
+        <v>1395</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
@@ -6531,8 +6545,8 @@
       <c r="L141" s="4">
         <v>5</v>
       </c>
-      <c r="M141" s="5">
-        <v>1.391</v>
+      <c r="M141" s="7">
+        <v>1391</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
@@ -6572,8 +6586,8 @@
       <c r="L142" s="4">
         <v>7</v>
       </c>
-      <c r="M142" s="5">
-        <v>1.139</v>
+      <c r="M142" s="7">
+        <v>1139</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
@@ -6652,8 +6666,8 @@
       <c r="L144" s="4">
         <v>8</v>
       </c>
-      <c r="M144" s="5">
-        <v>1.125</v>
+      <c r="M144" s="7">
+        <v>1125</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.25">
@@ -6691,8 +6705,8 @@
       <c r="L145" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M145" s="5">
-        <v>1.117</v>
+      <c r="M145" s="7">
+        <v>1117</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.25">
@@ -7260,26 +7274,26 @@
         <v>12</v>
       </c>
       <c r="B160" s="6"/>
-      <c r="C160" s="5">
-        <v>1.5449999999999999</v>
-      </c>
-      <c r="D160" s="5">
-        <v>1.4259999999999999</v>
-      </c>
-      <c r="E160" s="5">
-        <v>2.2679999999999998</v>
-      </c>
-      <c r="F160" s="5">
-        <v>1.7889999999999999</v>
-      </c>
-      <c r="G160" s="5">
-        <v>3.4769999999999999</v>
-      </c>
-      <c r="H160" s="5">
-        <v>9.6020000000000003</v>
-      </c>
-      <c r="I160" s="5">
-        <v>2.8250000000000002</v>
+      <c r="C160" s="7">
+        <v>1545</v>
+      </c>
+      <c r="D160" s="7">
+        <v>1426</v>
+      </c>
+      <c r="E160" s="7">
+        <v>2268</v>
+      </c>
+      <c r="F160" s="7">
+        <v>1789</v>
+      </c>
+      <c r="G160" s="7">
+        <v>3477</v>
+      </c>
+      <c r="H160" s="7">
+        <v>9602</v>
+      </c>
+      <c r="I160" s="7">
+        <v>2825</v>
       </c>
       <c r="J160" s="5">
         <v>269</v>
@@ -7290,8 +7304,8 @@
       <c r="L160" s="5">
         <v>106</v>
       </c>
-      <c r="M160" s="5">
-        <v>23.312000000000001</v>
+      <c r="M160" s="7">
+        <v>23312</v>
       </c>
     </row>
     <row r="161" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -8328,8 +8342,8 @@
       <c r="L186" s="5">
         <v>95</v>
       </c>
-      <c r="M186" s="5">
-        <v>1.776</v>
+      <c r="M186" s="7">
+        <v>1776</v>
       </c>
     </row>
     <row r="187" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -9366,8 +9380,18 @@
       <c r="L212" s="5">
         <v>29</v>
       </c>
-      <c r="M212" s="5">
-        <v>2.2639999999999998</v>
+      <c r="M212" s="7">
+        <v>2264</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A213" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="214" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A214" s="10" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
